--- a/data/223/SPSE/BVSP Index - Weekly.xlsx
+++ b/data/223/SPSE/BVSP Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BHL2"/>
+  <dimension ref="A1:BHM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8214,15 +8214,20 @@
       </c>
       <c r="BHJ1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="BHK1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BHK1" s="1" t="inlineStr">
+      <c r="BHL1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BHL1" s="1" t="inlineStr">
+      <c r="BHM1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -12936,19 +12941,22 @@
         <v>119081</v>
       </c>
       <c r="BHI2" t="n">
-        <v>119999</v>
-      </c>
-      <c r="BHJ2" t="inlineStr">
+        <v>121570</v>
+      </c>
+      <c r="BHJ2" t="n">
+        <v>118885</v>
+      </c>
+      <c r="BHK2" t="inlineStr">
         <is>
           <t>BVSP</t>
         </is>
       </c>
-      <c r="BHK2" t="inlineStr">
+      <c r="BHL2" t="inlineStr">
         <is>
           <t>Bovespa Index, Close Price</t>
         </is>
       </c>
-      <c r="BHL2" t="inlineStr">
+      <c r="BHM2" t="inlineStr">
         <is>
           <t>Index: 1992.03.11=1.51</t>
         </is>
